--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="280">
   <si>
     <t>cliente</t>
   </si>
@@ -645,9 +645,6 @@
     <t>mabelgladys25@gmail.com</t>
   </si>
   <si>
-    <t>deysy03_9@hotmail.com</t>
-  </si>
-  <si>
     <t>Vanesa</t>
   </si>
   <si>
@@ -865,6 +862,9 @@
   </si>
   <si>
     <t>Gabriel</t>
+  </si>
+  <si>
+    <t>Acosta Martin</t>
   </si>
 </sst>
 </file>
@@ -1193,10 +1193,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A109" sqref="A109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1250,7 +1250,7 @@
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1261,7 +1261,7 @@
         <v>1200</v>
       </c>
       <c r="H3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1281,7 +1281,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1324,7 +1324,7 @@
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1344,7 +1344,7 @@
         <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1364,7 +1364,7 @@
         <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1384,7 +1384,7 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1444,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1464,7 +1464,7 @@
         <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1484,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="H14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,7 +1504,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1524,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
       <c r="H17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1564,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -1587,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1630,7 +1630,7 @@
         <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1647,7 +1647,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1667,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="H23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1687,7 +1687,7 @@
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1707,7 +1707,7 @@
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="H27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,7 +1773,7 @@
         <v>7</v>
       </c>
       <c r="H28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1796,7 +1796,7 @@
         <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1816,7 +1816,7 @@
         <v>7</v>
       </c>
       <c r="H30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
       <c r="H31" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1856,7 +1856,7 @@
         <v>7</v>
       </c>
       <c r="H32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1876,7 +1876,7 @@
         <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1896,7 +1896,7 @@
         <v>6</v>
       </c>
       <c r="H34" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1913,7 +1913,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1930,7 +1930,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1950,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="H37" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1973,7 +1973,7 @@
         <v>6</v>
       </c>
       <c r="H38" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1996,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,7 +2016,7 @@
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -2036,7 +2036,7 @@
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2053,7 +2053,7 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -2076,7 +2076,7 @@
         <v>12</v>
       </c>
       <c r="H43" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -2113,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="H46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -2153,7 +2153,7 @@
         <v>7</v>
       </c>
       <c r="H47" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -2173,7 +2173,7 @@
         <v>7</v>
       </c>
       <c r="H48" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -2193,7 +2193,7 @@
         <v>4</v>
       </c>
       <c r="H49" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -2216,7 +2216,7 @@
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -2236,7 +2236,7 @@
         <v>7</v>
       </c>
       <c r="H51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -2276,7 +2276,7 @@
         <v>7</v>
       </c>
       <c r="H53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -2293,7 +2293,7 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
       <c r="H55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
@@ -2333,7 +2333,7 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -2353,7 +2353,7 @@
         <v>4</v>
       </c>
       <c r="H57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
@@ -2373,7 +2373,7 @@
         <v>4</v>
       </c>
       <c r="H58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
@@ -2393,7 +2393,7 @@
         <v>5</v>
       </c>
       <c r="H59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
@@ -2410,7 +2410,7 @@
         <v>4</v>
       </c>
       <c r="H60" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,7 +2447,7 @@
         <v>4</v>
       </c>
       <c r="H62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
         <v>7</v>
       </c>
       <c r="H63" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="H64" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
@@ -2513,7 +2513,7 @@
         <v>7</v>
       </c>
       <c r="H65" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -2533,7 +2533,7 @@
         <v>4</v>
       </c>
       <c r="H66" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -2556,7 +2556,7 @@
         <v>1</v>
       </c>
       <c r="H67" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2576,7 +2576,7 @@
         <v>7</v>
       </c>
       <c r="H68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2596,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="H69" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
@@ -2616,7 +2616,7 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -2636,7 +2636,7 @@
         <v>4</v>
       </c>
       <c r="H71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
       <c r="H72" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
@@ -2679,7 +2679,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -2699,7 +2699,7 @@
         <v>4</v>
       </c>
       <c r="H74" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
@@ -2719,7 +2719,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>4</v>
       </c>
       <c r="H76" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -2756,7 +2756,7 @@
         <v>12</v>
       </c>
       <c r="H77" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2776,7 +2776,7 @@
         <v>8</v>
       </c>
       <c r="H78" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
@@ -2796,7 +2796,7 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2816,7 +2816,7 @@
         <v>6</v>
       </c>
       <c r="H80" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
@@ -2836,7 +2836,7 @@
         <v>4</v>
       </c>
       <c r="H81" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
@@ -2859,7 +2859,7 @@
         <v>5</v>
       </c>
       <c r="H82" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
@@ -2879,7 +2879,7 @@
         <v>6</v>
       </c>
       <c r="H83" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
@@ -2899,7 +2899,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -2919,7 +2919,7 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
@@ -2939,7 +2939,7 @@
         <v>1</v>
       </c>
       <c r="H86" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -2976,7 +2976,7 @@
         <v>5</v>
       </c>
       <c r="H88" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
@@ -2996,7 +2996,7 @@
         <v>5</v>
       </c>
       <c r="H89" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
@@ -3016,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="H90" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
@@ -3036,7 +3036,7 @@
         <v>5</v>
       </c>
       <c r="H91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
@@ -3053,201 +3053,207 @@
         <v>5</v>
       </c>
       <c r="H92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>101</v>
+        <v>279</v>
       </c>
       <c r="B93">
-        <v>8000</v>
-      </c>
-      <c r="C93" t="s">
-        <v>199</v>
-      </c>
-      <c r="D93">
-        <v>2</v>
-      </c>
-      <c r="E93">
-        <v>5</v>
+        <v>2500</v>
       </c>
       <c r="G93">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H93" t="s">
-        <v>211</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>12000</v>
+        <v>8000</v>
       </c>
       <c r="C94" t="s">
-        <v>200</v>
+        <v>199</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
       </c>
       <c r="E94">
         <v>5</v>
       </c>
+      <c r="G94">
+        <v>5</v>
+      </c>
       <c r="H94" t="s">
-        <v>274</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="B95">
+        <v>12000</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
       </c>
       <c r="E95">
         <v>5</v>
       </c>
       <c r="H95" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>104</v>
-      </c>
-      <c r="B96">
-        <v>6000</v>
+        <v>103</v>
       </c>
       <c r="E96">
         <v>5</v>
       </c>
       <c r="H96" t="s">
-        <v>275</v>
+        <v>227</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C97" t="s">
-        <v>201</v>
+        <v>104</v>
+      </c>
+      <c r="B97">
+        <v>6000</v>
       </c>
       <c r="E97">
         <v>5</v>
       </c>
-      <c r="G97">
-        <v>1</v>
-      </c>
       <c r="H97" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>106</v>
-      </c>
-      <c r="B98">
-        <v>28000</v>
+        <v>105</v>
+      </c>
+      <c r="C98" t="s">
+        <v>201</v>
       </c>
       <c r="E98">
         <v>5</v>
       </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
       <c r="H98" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>21000</v>
+        <v>28000</v>
       </c>
       <c r="E99">
         <v>5</v>
       </c>
-      <c r="G99">
-        <v>7</v>
-      </c>
       <c r="H99" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>16000</v>
+        <v>21000</v>
       </c>
       <c r="E100">
         <v>5</v>
       </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
       <c r="H100" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>20000</v>
-      </c>
-      <c r="C101" t="s">
-        <v>202</v>
+        <v>16000</v>
       </c>
       <c r="E101">
         <v>5</v>
       </c>
-      <c r="G101">
-        <v>1</v>
-      </c>
       <c r="H101" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>7000</v>
+        <v>20000</v>
       </c>
       <c r="C102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E102">
         <v>5</v>
       </c>
       <c r="G102">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>215</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+      <c r="B103">
+        <v>7000</v>
+      </c>
+      <c r="C103" t="s">
+        <v>203</v>
       </c>
       <c r="E103">
         <v>5</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H103" t="s">
-        <v>279</v>
+        <v>214</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E104">
         <v>5</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E105">
         <v>5</v>
@@ -3255,44 +3261,46 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>114</v>
-      </c>
-      <c r="C106" t="s">
-        <v>204</v>
+        <v>113</v>
       </c>
       <c r="E106">
-        <v>5</v>
-      </c>
-      <c r="G106">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C107" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E107">
         <v>5</v>
       </c>
-      <c r="F107">
-        <v>2</v>
+      <c r="G107">
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>116</v>
       </c>
-      <c r="C108" t="s">
-        <v>206</v>
-      </c>
-      <c r="E108">
-        <v>5</v>
-      </c>
-      <c r="G108">
-        <v>7</v>
+      <c r="H109" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
